--- a/docs/files/gantt.xlsx
+++ b/docs/files/gantt.xlsx
@@ -5005,7 +5005,7 @@
         <v>29</v>
       </c>
       <c r="G52" s="49">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="H52" s="31"/>
       <c r="I52" s="32"/>
@@ -5088,7 +5088,7 @@
         <v>42</v>
       </c>
       <c r="G53" s="49">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="H53" s="31"/>
       <c r="I53" s="32"/>
@@ -5171,7 +5171,7 @@
         <v>29</v>
       </c>
       <c r="G54" s="49">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H54" s="31"/>
       <c r="I54" s="32"/>
@@ -5254,7 +5254,7 @@
         <v>85</v>
       </c>
       <c r="G55" s="49">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H55" s="31"/>
       <c r="I55" s="32"/>
@@ -5337,7 +5337,7 @@
         <v>29</v>
       </c>
       <c r="G56" s="49">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H56" s="31"/>
       <c r="I56" s="32"/>
@@ -5491,7 +5491,7 @@
         <v>42</v>
       </c>
       <c r="G58" s="49">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H58" s="31"/>
       <c r="I58" s="32"/>
